--- a/src/main/resources/tp/低价商品单.xlsx
+++ b/src/main/resources/tp/低价商品单.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\BP\src\main\resources\tp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\BP2\BP\src\main\resources\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12DD133-D01A-4138-AB45-2CB9102D0D10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BD6AA3-3A10-48E5-8528-3643493C9FF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,12 +37,6 @@
     <t>数量</t>
   </si>
   <si>
-    <t>商品重量</t>
-  </si>
-  <si>
-    <t>商品限价</t>
-  </si>
-  <si>
     <t>{{$fe:list t.fdId</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -68,6 +62,14 @@
   </si>
   <si>
     <t>t.priceFixing}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品重量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品限价</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +498,7 @@
   <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -526,33 +528,33 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
